--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_497__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_497__Reeval_LHS_Modell_1.2.xlsx
@@ -5876,55 +5876,55 @@
                   <c:v>42.8172607421875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.55054473876953</c:v>
+                  <c:v>43.55055236816406</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>58.16531753540039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.64494323730469</c:v>
+                  <c:v>46.64493942260742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.95417404174805</c:v>
+                  <c:v>53.95416259765625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.99024200439453</c:v>
+                  <c:v>51.99023056030273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.25891876220703</c:v>
+                  <c:v>63.25892639160156</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>51.40568542480469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.62419509887695</c:v>
+                  <c:v>63.62420272827148</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43.42298889160156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.97761917114258</c:v>
+                  <c:v>60.97762680053711</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>61.11782836914062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.73188400268555</c:v>
+                  <c:v>41.73187637329102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41.86048126220703</c:v>
+                  <c:v>41.86047744750977</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65.05207824707031</c:v>
+                  <c:v>65.05208587646484</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.1732063293457</c:v>
+                  <c:v>35.17319488525391</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>48.39618301391602</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>55.61065292358398</c:v>
+                  <c:v>55.61064910888672</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>61.09065628051758</c:v>
@@ -5933,10 +5933,10 @@
                   <c:v>46.803466796875</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.61382675170898</c:v>
+                  <c:v>53.61383438110352</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.79144668579102</c:v>
+                  <c:v>33.79143905639648</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>42.77686309814453</c:v>
@@ -5945,37 +5945,37 @@
                   <c:v>60.14004898071289</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45.7371711730957</c:v>
+                  <c:v>45.73716354370117</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>65.39462280273438</c:v>
+                  <c:v>65.39461517333984</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41.67223739624023</c:v>
+                  <c:v>41.6722412109375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49.32485961914062</c:v>
+                  <c:v>49.32486724853516</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45.77772521972656</c:v>
+                  <c:v>45.7777214050293</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51.63644027709961</c:v>
+                  <c:v>51.63642883300781</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55.33606338500977</c:v>
+                  <c:v>55.3360710144043</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>46.35402679443359</c:v>
+                  <c:v>46.35402297973633</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42.85360336303711</c:v>
+                  <c:v>42.85361099243164</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.40619277954102</c:v>
+                  <c:v>43.40618896484375</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42.70653533935547</c:v>
+                  <c:v>42.70654296875</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>60.8902702331543</c:v>
@@ -5987,25 +5987,25 @@
                   <c:v>64.04417419433594</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.64772033691406</c:v>
+                  <c:v>42.64772415161133</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43.67813491821289</c:v>
+                  <c:v>43.67813873291016</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>49.30284118652344</c:v>
+                  <c:v>49.30284881591797</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>61.33795547485352</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>53.05947494506836</c:v>
+                  <c:v>53.05947113037109</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>48.55264663696289</c:v>
+                  <c:v>48.55263900756836</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42.7162971496582</c:v>
+                  <c:v>42.71628952026367</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>54.21216201782227</c:v>
@@ -6017,19 +6017,19 @@
                   <c:v>55.10249328613281</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>52.57550811767578</c:v>
+                  <c:v>52.57551193237305</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>63.30930328369141</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42.8790168762207</c:v>
+                  <c:v>42.87901306152344</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>44.59214401245117</c:v>
+                  <c:v>44.59214782714844</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>49.69036102294922</c:v>
+                  <c:v>49.69035339355469</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>42.51364135742188</c:v>
@@ -6044,16 +6044,16 @@
                   <c:v>42.20663070678711</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>64.8592529296875</c:v>
+                  <c:v>64.85923004150391</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>50.83792495727539</c:v>
+                  <c:v>50.83792877197266</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>58.51906585693359</c:v>
+                  <c:v>58.51905822753906</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43.88670349121094</c:v>
+                  <c:v>43.88669967651367</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>55.34947204589844</c:v>
@@ -6062,34 +6062,34 @@
                   <c:v>63.154052734375</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>55.90299224853516</c:v>
+                  <c:v>55.90299606323242</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>66.03712463378906</c:v>
+                  <c:v>66.03713226318359</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>44.052978515625</c:v>
+                  <c:v>44.0529670715332</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42.65740203857422</c:v>
+                  <c:v>42.65740585327148</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43.78296661376953</c:v>
+                  <c:v>43.7829704284668</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>64.36615753173828</c:v>
+                  <c:v>64.36614227294922</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>44.20027160644531</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43.42306900024414</c:v>
+                  <c:v>43.42306137084961</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>57.46553039550781</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>44.17563247680664</c:v>
+                  <c:v>44.17562484741211</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>56.24945831298828</c:v>
@@ -6098,16 +6098,16 @@
                   <c:v>46.22442245483398</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>64.00710296630859</c:v>
+                  <c:v>64.00711059570312</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>49.44879150390625</c:v>
+                  <c:v>49.44878768920898</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>44.20847320556641</c:v>
+                  <c:v>44.20846939086914</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42.48305892944336</c:v>
+                  <c:v>42.48305511474609</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>40.70949554443359</c:v>
@@ -6116,7 +6116,7 @@
                   <c:v>42.26471328735352</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>44.93661880493164</c:v>
+                  <c:v>44.93661499023438</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>51.63185501098633</c:v>
@@ -6125,46 +6125,46 @@
                   <c:v>44.85074234008789</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>46.68925476074219</c:v>
+                  <c:v>46.68926239013672</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>62.53440856933594</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>46.4339599609375</c:v>
+                  <c:v>46.43395614624023</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>48.42933654785156</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>42.7767448425293</c:v>
+                  <c:v>42.77674865722656</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>56.23408126831055</c:v>
+                  <c:v>56.23407363891602</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>49.5887451171875</c:v>
+                  <c:v>49.5887336730957</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>60.44383239746094</c:v>
+                  <c:v>60.44384002685547</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43.144775390625</c:v>
+                  <c:v>43.14477157592773</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>45.84392166137695</c:v>
+                  <c:v>45.84391784667969</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>41.80183792114258</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>58.50422286987305</c:v>
+                  <c:v>58.50421524047852</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>49.18994522094727</c:v>
+                  <c:v>49.18994140625</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>41.89884185791016</c:v>
+                  <c:v>41.89883041381836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6891,7 +6891,7 @@
         <v>81.04689999999999</v>
       </c>
       <c r="F3">
-        <v>43.55054473876953</v>
+        <v>43.55055236816406</v>
       </c>
       <c r="G3">
         <v>126</v>
@@ -6955,7 +6955,7 @@
         <v>88.07989999999999</v>
       </c>
       <c r="F5">
-        <v>46.64494323730469</v>
+        <v>46.64493942260742</v>
       </c>
       <c r="G5">
         <v>126</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>53.95417404174805</v>
+        <v>53.95416259765625</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>51.99024200439453</v>
+        <v>51.99023056030273</v>
       </c>
       <c r="G7">
         <v>126</v>
@@ -7051,7 +7051,7 @@
         <v>97.0509</v>
       </c>
       <c r="F8">
-        <v>63.25891876220703</v>
+        <v>63.25892639160156</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>94.1598</v>
       </c>
       <c r="F10">
-        <v>63.62419509887695</v>
+        <v>63.62420272827148</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>96.3742</v>
       </c>
       <c r="F12">
-        <v>60.97761917114258</v>
+        <v>60.97762680053711</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>96.46769999999999</v>
       </c>
       <c r="F14">
-        <v>41.73188400268555</v>
+        <v>41.73187637329102</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>92.2294</v>
       </c>
       <c r="F15">
-        <v>41.86048126220703</v>
+        <v>41.86047744750977</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>65.05207824707031</v>
+        <v>65.05208587646484</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>34.5547</v>
       </c>
       <c r="F17">
-        <v>35.1732063293457</v>
+        <v>35.17319488525391</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>53.0182</v>
       </c>
       <c r="F19">
-        <v>55.61065292358398</v>
+        <v>55.61064910888672</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>98.35980000000001</v>
       </c>
       <c r="F22">
-        <v>53.61382675170898</v>
+        <v>53.61383438110352</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.79144668579102</v>
+        <v>33.79143905639648</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>98.4127</v>
       </c>
       <c r="F26">
-        <v>45.7371711730957</v>
+        <v>45.73716354370117</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>97.9389</v>
       </c>
       <c r="F27">
-        <v>65.39462280273438</v>
+        <v>65.39461517333984</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>90.157</v>
       </c>
       <c r="F28">
-        <v>41.67223739624023</v>
+        <v>41.6722412109375</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>49.32485961914062</v>
+        <v>49.32486724853516</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>98.30370000000001</v>
       </c>
       <c r="F30">
-        <v>45.77772521972656</v>
+        <v>45.7777214050293</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>87.8788</v>
       </c>
       <c r="F31">
-        <v>51.63644027709961</v>
+        <v>51.63642883300781</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>88.6494</v>
       </c>
       <c r="F32">
-        <v>55.33606338500977</v>
+        <v>55.3360710144043</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>91.72880000000001</v>
       </c>
       <c r="F33">
-        <v>46.35402679443359</v>
+        <v>46.35402297973633</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>42.85360336303711</v>
+        <v>42.85361099243164</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>93.7411</v>
       </c>
       <c r="F35">
-        <v>43.40619277954102</v>
+        <v>43.40618896484375</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>42.70653533935547</v>
+        <v>42.70654296875</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>42.64772033691406</v>
+        <v>42.64772415161133</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>94.85250000000001</v>
       </c>
       <c r="F41">
-        <v>43.67813491821289</v>
+        <v>43.67813873291016</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>91.2435</v>
       </c>
       <c r="F42">
-        <v>49.30284118652344</v>
+        <v>49.30284881591797</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>92.8233</v>
       </c>
       <c r="F44">
-        <v>53.05947494506836</v>
+        <v>53.05947113037109</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>48.55264663696289</v>
+        <v>48.55263900756836</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>96.6305</v>
       </c>
       <c r="F46">
-        <v>42.7162971496582</v>
+        <v>42.71628952026367</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>88.3647</v>
       </c>
       <c r="F50">
-        <v>52.57550811767578</v>
+        <v>52.57551193237305</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>87.05159999999999</v>
       </c>
       <c r="F52">
-        <v>42.8790168762207</v>
+        <v>42.87901306152344</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>97.9697</v>
       </c>
       <c r="F53">
-        <v>44.59214401245117</v>
+        <v>44.59214782714844</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>97.46850000000001</v>
       </c>
       <c r="F54">
-        <v>49.69036102294922</v>
+        <v>49.69035339355469</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>98.1859</v>
       </c>
       <c r="F59">
-        <v>64.8592529296875</v>
+        <v>64.85923004150391</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>97.90219999999999</v>
       </c>
       <c r="F60">
-        <v>50.83792495727539</v>
+        <v>50.83792877197266</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>94.23860000000001</v>
       </c>
       <c r="F61">
-        <v>58.51906585693359</v>
+        <v>58.51905822753906</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>93.1279</v>
       </c>
       <c r="F62">
-        <v>43.88670349121094</v>
+        <v>43.88669967651367</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>55.90299224853516</v>
+        <v>55.90299606323242</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>66.03712463378906</v>
+        <v>66.03713226318359</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>44.052978515625</v>
+        <v>44.0529670715332</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>42.65740203857422</v>
+        <v>42.65740585327148</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>43.78296661376953</v>
+        <v>43.7829704284668</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>97.982</v>
       </c>
       <c r="F70">
-        <v>64.36615753173828</v>
+        <v>64.36614227294922</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>43.42306900024414</v>
+        <v>43.42306137084961</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.41719999999999</v>
       </c>
       <c r="F74">
-        <v>44.17563247680664</v>
+        <v>44.17562484741211</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>84.90900000000001</v>
       </c>
       <c r="F77">
-        <v>64.00710296630859</v>
+        <v>64.00711059570312</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>71.7201</v>
       </c>
       <c r="F78">
-        <v>49.44879150390625</v>
+        <v>49.44878768920898</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>97.88209999999999</v>
       </c>
       <c r="F79">
-        <v>44.20847320556641</v>
+        <v>44.20846939086914</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>91.229</v>
       </c>
       <c r="F80">
-        <v>42.48305892944336</v>
+        <v>42.48305511474609</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>73.425</v>
       </c>
       <c r="F83">
-        <v>44.93661880493164</v>
+        <v>44.93661499023438</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>46.68925476074219</v>
+        <v>46.68926239013672</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>46.4339599609375</v>
+        <v>46.43395614624023</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>42.7767448425293</v>
+        <v>42.77674865722656</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>92.1071</v>
       </c>
       <c r="F91">
-        <v>56.23408126831055</v>
+        <v>56.23407363891602</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>49.5887451171875</v>
+        <v>49.5887336730957</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>97.4933</v>
       </c>
       <c r="F93">
-        <v>60.44383239746094</v>
+        <v>60.44384002685547</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>92.3792</v>
       </c>
       <c r="F94">
-        <v>43.144775390625</v>
+        <v>43.14477157592773</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>45.84392166137695</v>
+        <v>45.84391784667969</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>58.50422286987305</v>
+        <v>58.50421524047852</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>84.1915</v>
       </c>
       <c r="F98">
-        <v>49.18994522094727</v>
+        <v>49.18994140625</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F99">
-        <v>41.89884185791016</v>
+        <v>41.89883041381836</v>
       </c>
     </row>
     <row r="100" spans="1:6">
